--- a/Output/roaming_impact_reports_per_acct/EY_driver_summary.xlsx
+++ b/Output/roaming_impact_reports_per_acct/EY_driver_summary.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,15 +437,15 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="64" customWidth="1" min="1" max="1"/>
-    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
     <col width="18" customWidth="1" min="3" max="3"/>
     <col width="30" customWidth="1" min="4" max="4"/>
-    <col width="16" customWidth="1" min="5" max="5"/>
-    <col width="2" customWidth="1" min="6" max="6"/>
-    <col width="2" customWidth="1" min="7" max="7"/>
-    <col width="2" customWidth="1" min="8" max="8"/>
-    <col width="2" customWidth="1" min="9" max="9"/>
-    <col width="2" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="11" customWidth="1" min="6" max="6"/>
+    <col width="48" customWidth="1" min="7" max="7"/>
+    <col width="15" customWidth="1" min="8" max="8"/>
+    <col width="30" customWidth="1" min="9" max="9"/>
+    <col width="16" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -519,33 +519,97 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="inlineStr">
-        <is>
-          <t>Adapter-Driver</t>
-        </is>
-      </c>
-      <c r="B11" s="3" t="inlineStr">
-        <is>
-          <t>Total Samples</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr"/>
-      <c r="D11" s="3" t="inlineStr">
-        <is>
-          <t>Good Roaming Calculation (%)</t>
-        </is>
-      </c>
-      <c r="E11" s="3" t="inlineStr">
-        <is>
-          <t>Driver Vintage</t>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>adapter-driver</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>good sum</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>critical sum</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>warning sum</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>client count</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>total sum</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>adapter</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>driver</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>good roaming calculation (%)</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>driver vintage</t>
         </is>
       </c>
     </row>
-    <row r="12"/>
-    <row r="13"/>
-    <row r="14"/>
-    <row r="15"/>
-    <row r="16"/>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Realtek RTL8852AE WiFi 6 802.11ax PCIe Adapter - 6001.10.356.1</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>1071383</v>
+      </c>
+      <c r="C12" t="n">
+        <v>4419</v>
+      </c>
+      <c r="D12" t="n">
+        <v>180</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1644</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1075982</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>realtek rtl8852ae wifi 6 802.11ax pcie adapter</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>6001.10.356.1</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>2024-05-12</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Output/roaming_impact_reports_per_acct/EY_driver_summary.xlsx
+++ b/Output/roaming_impact_reports_per_acct/EY_driver_summary.xlsx
@@ -577,19 +577,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1071383</v>
+        <v>1074341</v>
       </c>
       <c r="C12" t="n">
-        <v>4419</v>
+        <v>4452</v>
       </c>
       <c r="D12" t="n">
         <v>180</v>
       </c>
       <c r="E12" t="n">
-        <v>1644</v>
+        <v>1647</v>
       </c>
       <c r="F12" t="n">
-        <v>1075982</v>
+        <v>1078973</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
